--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36799CE7-DFC4-6A4C-9D1B-AFFC3F979835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03C0E8A-B00C-48CF-A61F-583ADA38F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,20 +1752,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,45 +1765,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2152,19 +2109,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2173,7 +2130,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2188,7 +2145,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2201,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>5.72</v>
+        <v>5.7199997901916504</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2225,7 +2182,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2239,13 +2196,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>1046879.9931189599</v>
+        <v>1046879.9547196308</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2226,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2284,15 +2241,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.1000000000000001</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>212</v>
       </c>
@@ -2300,7 +2257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2311,7 +2268,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2325,7 +2282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2333,23 +2290,23 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="168">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="168">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2360,7 +2317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2374,17 +2331,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="190">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2397,7 +2354,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2408,7 +2365,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2419,7 +2376,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2431,7 +2388,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2444,10 +2401,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.56711699389364378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.57518859866537753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2460,10 +2417,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.16331828970254442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.16102644892278417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>213</v>
       </c>
@@ -2479,7 +2436,7 @@
         <v>0.52987611917854494</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2492,11 +2449,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.653846153846155E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.5324069840307049E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2514,919 +2471,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>5.459558823529413</v>
+        <v>5.3829447968917723</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>9.099264705882355</v>
+        <v>8.9715746614862883</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>7.279411764705884</v>
+        <v>7.1772597291890303</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3438,22 +3395,22 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="4">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3490,7 +3447,7 @@
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3498,7 +3455,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3506,7 +3463,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3523,7 +3480,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3549,13 +3506,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3605,7 +3562,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3627,7 +3584,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3678,7 +3635,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3702,7 +3659,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3753,7 +3710,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3777,7 +3734,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3828,7 +3785,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3850,7 +3807,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3901,7 +3858,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3923,7 +3880,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3945,7 +3902,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3969,7 +3926,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3991,7 +3948,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4013,7 +3970,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4064,7 +4021,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4115,7 +4072,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4166,7 +4123,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4217,7 +4174,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4268,7 +4225,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4319,7 +4276,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4370,7 +4327,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4391,7 +4348,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4412,7 +4369,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4433,7 +4390,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4454,7 +4411,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4475,7 +4432,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4496,7 +4453,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4517,7 +4474,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4568,7 +4525,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4589,7 +4546,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4610,7 +4567,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4631,7 +4588,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4682,7 +4639,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4733,7 +4690,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4751,7 +4708,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4802,7 +4759,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4853,7 +4810,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4904,7 +4861,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4955,7 +4912,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5006,7 +4963,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5057,7 +5014,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5108,7 +5065,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5126,7 +5083,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5177,7 +5134,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5228,7 +5185,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5245,7 +5202,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5295,7 +5252,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5345,7 +5302,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5395,7 +5352,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5445,1300 +5402,1280 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C7:M7 C25:M38 E6:M6 C9:M9 E8:M8 C11:M11 E10:M10 C13:M13 E12:M12 C19:M21 E14:M18">
-    <cfRule type="containsBlanks" dxfId="11" priority="8">
+  <conditionalFormatting sqref="C6:M21">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:M22">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
-      <formula>LEN(TRIM(D22))=0</formula>
+  <conditionalFormatting sqref="C25:M38">
+    <cfRule type="containsBlanks" dxfId="5" priority="8">
+      <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:D6">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(C6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(C8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:D10">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(C10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D18">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C14))=0</formula>
+  <conditionalFormatting sqref="D22:M22">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6762,7 +6699,7 @@
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6771,11 +6708,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6791,7 +6728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6814,7 +6751,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6830,7 +6767,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6845,18 +6782,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-661295.03</v>
+        <v>-652015.07228154724</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.3940612268368855</v>
+        <v>1.3885313629219429</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6870,7 +6807,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6893,13 +6830,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6918,7 +6855,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6943,7 +6880,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6968,7 +6905,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6989,7 +6926,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7013,7 +6950,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7039,7 +6976,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7062,7 +6999,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7082,7 +7019,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7102,7 +7039,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7121,7 +7058,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7141,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7163,7 +7100,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7180,7 +7117,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7204,7 +7141,7 @@
         <v>664223</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7213,7 +7150,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7235,7 +7172,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7264,7 +7201,7 @@
         <v>0.65328093145661503</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7297,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7330,7 +7267,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7359,7 +7296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7371,7 +7308,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7392,7 +7329,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7412,7 +7349,7 @@
       <c r="I31" s="63"/>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7432,7 +7369,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7459,7 +7396,7 @@
       </c>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7482,7 +7419,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7505,7 +7442,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7527,7 +7464,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7551,7 +7488,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7571,7 +7508,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7588,7 +7525,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7607,7 +7544,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7626,7 +7563,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7651,7 +7588,7 @@
         <v>292377</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7660,7 +7597,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7679,7 +7616,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7698,7 +7635,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7728,7 +7665,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7758,7 +7695,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7784,7 +7721,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7811,20 +7748,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7841,7 +7778,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7862,7 +7799,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7871,7 +7808,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7882,22 +7819,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="211">
+      <c r="D56" s="208">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="212"/>
+      <c r="E56" s="209"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7912,7 +7849,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7926,7 +7863,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7935,7 +7872,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7949,7 +7886,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7970,7 +7907,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7991,7 +7928,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8012,7 +7949,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8027,7 +7964,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8048,7 +7985,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8058,7 +7995,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8072,7 +8009,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8093,7 +8030,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8108,7 +8045,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8129,35 +8066,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="209">
+      <c r="C72" s="213">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="209"/>
+      <c r="D72" s="213"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="208" t="s">
+      <c r="C73" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="208"/>
-      <c r="E73" s="210" t="s">
+      <c r="D73" s="212"/>
+      <c r="E73" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="208"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="212"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8172,7 +8109,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8193,7 +8130,7 @@
         <v>0.86263355974668987</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8208,7 +8145,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8229,7 +8166,7 @@
         <v>-4.0574066127933066E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8244,7 +8181,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8265,7 +8202,7 @@
         <v>7.9916652607163307E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8286,7 +8223,7 @@
         <v>0.10112081917973094</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8310,7 +8247,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8330,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8351,7 +8288,7 @@
         <v>6.8828021940795986E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8362,7 +8299,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8383,7 +8320,7 @@
         <v>5.1621016455596989E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8398,7 +8335,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8419,11 +8356,11 @@
         <v>0.52987611917854494</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8433,42 +8370,42 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="213" t="s">
+      <c r="D90" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="213"/>
+      <c r="E90" s="210"/>
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D91" s="214" t="s">
+      <c r="D91" s="211" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="214"/>
+      <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16331828970254442</v>
+        <v>0.16102644892278417</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
       </c>
       <c r="C92" s="173">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.7999999999999995E-2</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D92" s="194">
         <v>5</v>
@@ -8478,14 +8415,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>20.561191378147562</v>
+        <v>20.359450935337016</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8503,51 +8440,51 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>2715172.0542967701</v>
+        <v>2650803.3919329108</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>14.835305147351992</v>
+        <v>14.483604139460596</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>11.244800603553827</v>
+        <v>10.978219790653354</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>207073.90000000002</v>
+        <v>204168.03053263822</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1314216679899873</v>
+        <v>1.1155444199170834</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-454221.12999999995</v>
+        <v>-447847.04174890905</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.4817981819094377</v>
+        <v>-2.4469710909000706</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8555,32 +8492,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2053877.0242967703</v>
+        <v>1998788.3196513637</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>11.222085297452567</v>
+        <v>10.921088628643444</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>8.7560608140097838</v>
+        <v>8.3440630814310222</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>14.027606621815709</v>
+        <v>13.651360785804306</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8597,34 +8534,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1332285.0591163237</v>
+        <v>1313589.0936899302</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>7.279411764705884</v>
+        <v>7.1772597291890303</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>5.459558823529413</v>
+        <v>5.3829447968917723</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>9.099264705882355</v>
+        <v>8.9715746614862883</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>224</v>
       </c>
@@ -8641,28 +8578,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1693081.0417065469</v>
+        <v>1656188.706670647</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>9.2507485310792248</v>
+        <v>9.0491741789162372</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>6.9380613983094186</v>
+        <v>6.7868806341871775</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>11.563435663849031</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11.311467723645297</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8672,33 +8609,33 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(E87))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03C0E8A-B00C-48CF-A61F-583ADA38F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF73E0D-21A7-41D3-A2F8-711C93AF92CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>5.7199997901916504</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>1046879.9547196308</v>
+        <v>1030408.1260604287</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2241,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.57518859866537753</v>
+        <v>0.56629510820813034</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.16102644892278417</v>
+        <v>0.16355531976433282</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.5324069840307049E-2</v>
+        <v>8.6664058107730646E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2477,16 +2477,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>5.3829447968917723</v>
+        <v>5.3814557764460051</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>8.9715746614862883</v>
+        <v>8.9690929607433425</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>7.1772597291890303</v>
+        <v>7.1752743685946738</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6789,11 +6789,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-652015.07228154724</v>
+        <v>-651834.71305249922</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.3885313629219429</v>
+        <v>1.3884238880796325</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -8394,7 +8394,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.16102644892278417</v>
+        <v>0.16355531976433282</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>20.359450935337016</v>
+        <v>20.582146979654848</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8446,15 +8446,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>2650803.3919329108</v>
+        <v>2679057.167410858</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>14.483604139460596</v>
+        <v>14.637978658790523</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>10.978219790653354</v>
+        <v>11.095231922921114</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8464,11 +8464,11 @@
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>204168.03053263822</v>
+        <v>204111.55394160748</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.1155444199170834</v>
+        <v>1.1152358400389513</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
@@ -8480,11 +8480,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-447847.04174890905</v>
+        <v>-447723.15911089175</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-2.4469710909000706</v>
+        <v>-2.4462942141862953</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8498,19 +8498,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>1998788.3196513637</v>
+        <v>2027222.4543583589</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>10.921088628643444</v>
+        <v>11.076448604565279</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>8.3440630814310222</v>
+        <v>8.4686269672195333</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>13.651360785804306</v>
+        <v>13.845560755706598</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8540,19 +8540,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1313589.0936899302</v>
+        <v>1313225.7310526296</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>7.1772597291890303</v>
+        <v>7.1752743685946738</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>5.3829447968917723</v>
+        <v>5.3814557764460051</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>8.9715746614862883</v>
+        <v>8.9690929607433425</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>221</v>
@@ -8584,19 +8584,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1656188.706670647</v>
+        <v>1670224.0927054945</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>9.0491741789162372</v>
+        <v>9.1258614865799768</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>6.7868806341871775</v>
+        <v>6.8443961149349821</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>11.311467723645297</v>
+        <v>11.407326858224971</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C689B8E6-A9F2-4FD6-850A-C3929C0C9948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF0FAF7-289B-4B0C-B613-6C1CDD91474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1943,6 +1943,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1984,9 +1987,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2411,17 +2411,17 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="246" t="str">
         <f>Inputs!C4</f>
         <v>0857.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.55</v>
+        <v>5.5500001907348633</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2431,40 +2431,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="248" t="str">
         <f>Inputs!C5</f>
         <v>中國石油股份</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="252">
         <f>Inputs!C10</f>
         <v>183020977818</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="250">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1015766.4268899</v>
-      </c>
-      <c r="H5" s="243"/>
+        <v>1015766.4617983812</v>
+      </c>
+      <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2487,11 +2487,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="245" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2511,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2560,7 +2560,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.56045215742694499</v>
+        <v>0.56093139737587294</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.14876885669738665</v>
+        <v>0.14864175384734249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7567567567567575E-2</v>
+        <v>8.7492752934610424E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2745,11 +2745,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="242" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="242"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2757,22 +2757,22 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>5.3089163298864017</v>
+        <v>6.1252726165035227</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.317933180387392</v>
+        <v>12.248114933250045</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.0500473309313101</v>
-      </c>
-      <c r="G29" s="242">
+        <v>9.5943672722293503</v>
+      </c>
+      <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>8.2543465443099144</v>
-      </c>
-      <c r="H29" s="242"/>
+        <v>9.798491946600036</v>
+      </c>
+      <c r="H29" s="243"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3765,7 +3765,7 @@
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="241" t="s">
         <v>246</v>
       </c>
       <c r="E5" s="231">
@@ -8764,11 +8764,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-701856.14399999997</v>
+        <v>-701256.52703110361</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4182313197902694</v>
+        <v>1.4178740121020572</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9891,11 +9891,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="253">
         <f>I15+I34</f>
         <v>133544</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9906,11 +9906,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="252">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="251"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9922,11 +9922,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="252">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10140,19 +10140,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="256">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="256"/>
+      <c r="E72" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="254"/>
+      <c r="H72" s="254" t="s">
         <v>224</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="254"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10162,18 +10162,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="255"/>
+      <c r="E73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="255"/>
+      <c r="H73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10528,17 +10528,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14876885669738665</v>
+        <v>0.14864175384734249</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14876885669738665</v>
+        <v>0.14864175384734249</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14876885669738665</v>
+        <v>0.14864175384734249</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10579,17 +10579,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7567567567567575E-2</v>
+        <v>8.7492752934610424E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7567567567567575E-2</v>
+        <v>8.7492752934610424E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7567567567567575E-2</v>
+        <v>8.7492752934610424E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10619,15 +10619,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="254"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="254" t="s">
         <v>224</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10647,14 +10647,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>19.118531564825062</v>
+        <v>21.231063642681651</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>228</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>19.118531564825062</v>
+        <v>21.231063642681651</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10672,14 +10672,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>8.5586204418210379</v>
+        <v>9.5063078616251886</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>8.5586204418210379</v>
+        <v>9.5063078616251886</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10719,19 +10719,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2571937.3286487972</v>
+        <v>2961769.5421523941</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>10.265712235664793</v>
+        <v>11.390298783460288</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>14.052691441777712</v>
+        <v>16.182677950161764</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>14.052691441777712</v>
+        <v>16.182677950161764</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10742,13 +10742,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>203308.92</v>
+        <v>203135.22702972093</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1108503649356238</v>
+        <v>1.1099013318119357</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10759,16 +10759,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-498547.22399999993</v>
+        <v>-498121.30000138271</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-3.1325879384718998</v>
+        <v>-3.1299116736838437</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-2.7239895117146955</v>
+        <v>-2.7216623249424732</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10779,23 +10779,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1870081.1846487974</v>
+        <v>2260513.0151212905</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>6.0222739322572689</v>
+        <v>7.1504857779645095</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>9.8092531383701882</v>
+        <v>11.942864944665985</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.217851565127393</v>
+        <v>12.351114293407356</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>12.772314456409241</v>
+        <v>15.438892866759195</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10833,23 +10833,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1151355.966927662</v>
+        <v>1326146.1392957831</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>4.5955587275155345</v>
+        <v>5.1000594550425351</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>6.2908415234924338</v>
+        <v>7.2458695997927158</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>6.2908415234924338</v>
+        <v>7.2458695997927158</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>7.8635519043655417</v>
+        <v>9.0573369997408939</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10887,23 +10887,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1473327.5339882295</v>
+        <v>1755970.4797084332</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>5.3089163298864017</v>
+        <v>6.1252726165035227</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>8.0500473309313101</v>
+        <v>9.5943672722293503</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>8.2543465443099144</v>
+        <v>9.798491946600036</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>10.317933180387392</v>
+        <v>12.248114933250045</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{714CCBE8-0424-41AD-9B16-09EDDACB097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC03F01D-6969-4606-B7C0-7674598B1CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.6500000953674316</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="G5" s="251">
         <f>G3*G4/1000000</f>
-        <v>1034068.5421259406</v>
+        <v>1037728.9581914525</v>
       </c>
       <c r="H5" s="251"/>
       <c r="I5" s="38"/>
@@ -4773,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C37*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57273546773682849</v>
+        <v>0.57562030231468408</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10761352065449219</v>
+        <v>0.10707419428921199</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5689528462071909E-2</v>
+        <v>8.5260078504046641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5017,20 +5017,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6541181374353702</v>
+        <v>4.6372602446152689</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8442913785814268</v>
+        <v>6.8195003597283375</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4754331028651411</v>
+        <v>5.4556002877826693</v>
       </c>
       <c r="G29" s="250">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.9499481460341146</v>
+        <v>2.9413446516692057</v>
       </c>
       <c r="H29" s="250"/>
     </row>
@@ -10174,11 +10174,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-699178.46747185371</v>
+        <v>-698136.95864712389</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.4166357104935328</v>
+        <v>1.416015082443093</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11938,17 +11938,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14557824928052548</v>
+        <v>0.144848655196336</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6013431654626779E-2</v>
+        <v>5.5732709303778764E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10761352065449219</v>
+        <v>0.10707419428921199</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -11989,17 +11989,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5689528462071909E-2</v>
+        <v>8.5260078504046641E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2844764231035955E-2</v>
+        <v>4.263003925202332E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5689528462071909E-2</v>
+        <v>8.5260078504046641E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -12057,14 +12057,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>5.3652709052779235</v>
+        <v>5.3581433874730529</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>13.084596876049249</v>
+        <v>13.052771699955134</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12082,14 +12082,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.8543251323819976</v>
+        <v>3.8503586784921748</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>219</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>9.4277544499745769</v>
+        <v>9.4091232165161482</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12132,17 +12132,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1819914.502698787</v>
+        <v>1812783.6090743863</v>
       </c>
       <c r="D97" s="222"/>
       <c r="E97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>4.0773822030602744</v>
+        <v>4.0658999134833085</v>
       </c>
       <c r="F97" s="222"/>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>9.9437481123532692</v>
+        <v>9.904785946871387</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -12153,14 +12153,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>202533.26885310808</v>
+        <v>202231.57165185609</v>
       </c>
       <c r="D98" s="222"/>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1066123198976214</v>
+        <v>1.1049638902757888</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -12192,27 +12192,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1617381.2338456789</v>
+        <v>1610552.0374225301</v>
       </c>
       <c r="D100" s="110">
         <f>F100*(1-C94)</f>
-        <v>5.018359912137778</v>
+        <v>4.9983221839163248</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.970769883162653</v>
+        <v>2.9609360232075197</v>
       </c>
       <c r="F100" s="110">
         <f>(E100+H100)/2</f>
-        <v>5.9039528378091504</v>
+        <v>5.880379039901559</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8371357924556477</v>
+        <v>8.7998220565955982</v>
       </c>
       <c r="I100" s="110">
         <f>F100*1.25</f>
-        <v>7.379941047261438</v>
+        <v>7.3504737998769487</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12253,27 +12253,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1311290.4596088971</v>
+        <v>1306749.6110975703</v>
       </c>
       <c r="D103" s="110">
         <f>F103*(1-C94)</f>
-        <v>4.2898763627329624</v>
+        <v>4.276198305314213</v>
       </c>
       <c r="E103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.9291264089055762</v>
+        <v>2.9217532801308916</v>
       </c>
       <c r="F103" s="110">
         <f>(E103+H103)/2</f>
-        <v>5.0469133679211327</v>
+        <v>5.0308215356637804</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>7.1647003269366891</v>
+        <v>7.1398897911966692</v>
       </c>
       <c r="I103" s="110">
         <f>F103*1.25</f>
-        <v>6.3086417099014156</v>
+        <v>6.2885269195797253</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12314,27 +12314,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>539902.39419955993</v>
+        <v>538327.77424824261</v>
       </c>
       <c r="D106" s="110">
         <f>(D100+D103)/2</f>
-        <v>4.6541181374353702</v>
+        <v>4.6372602446152689</v>
       </c>
       <c r="E106" s="124">
         <f>(E100+E103)/2</f>
-        <v>2.9499481460341146</v>
+        <v>2.9413446516692057</v>
       </c>
       <c r="F106" s="110">
         <f>(F100+F103)/2</f>
-        <v>5.4754331028651411</v>
+        <v>5.4556002877826693</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>8.0009180596961684</v>
+        <v>7.9698559238961337</v>
       </c>
       <c r="I106" s="124">
         <f>(I100+I103)/2</f>
-        <v>6.8442913785814268</v>
+        <v>6.8195003597283375</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC03F01D-6969-4606-B7C0-7674598B1CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC87570-211F-034F-9601-7FB6D038E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -963,18 +974,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1462,7 +1473,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="265">
@@ -1518,8 +1529,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,14 +1553,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1579,7 +1590,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1684,7 +1695,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1712,7 +1723,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,13 +1779,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1816,7 +1827,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,16 +1860,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,7 +1890,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1904,10 +1915,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1916,10 +1927,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,13 +1947,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1954,13 +1965,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1998,7 +2009,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,10 +2018,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2063,7 +2074,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2077,7 +2088,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2090,20 +2101,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -2284,7 +2295,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2346,7 +2357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2618,7 +2629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2648,7 +2659,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3460,20 +3471,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>203</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>204</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>169</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3527,7 +3538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>225</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>226</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>227</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>183020977818</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>228</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3575,7 +3586,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>230</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>229</v>
       </c>
@@ -3591,7 +3602,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>97</v>
       </c>
@@ -3600,7 +3611,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>138</v>
       </c>
@@ -3649,7 +3660,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3685,7 +3696,7 @@
       </c>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>106</v>
       </c>
@@ -3729,7 +3740,7 @@
       </c>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
@@ -3773,7 +3784,7 @@
       </c>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
@@ -3801,7 +3812,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>125</v>
       </c>
@@ -3837,7 +3848,7 @@
       </c>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="99" t="s">
         <v>111</v>
       </c>
@@ -3873,7 +3884,7 @@
       </c>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>110</v>
       </c>
@@ -3917,7 +3928,7 @@
       </c>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3961,7 +3972,7 @@
       </c>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>108</v>
       </c>
@@ -3997,7 +4008,7 @@
       </c>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4024,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>118</v>
       </c>
@@ -4029,7 +4040,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>153</v>
       </c>
@@ -4045,7 +4056,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4061,7 +4072,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>117</v>
       </c>
@@ -4077,7 +4088,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4093,7 +4104,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4109,7 +4120,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>142</v>
       </c>
@@ -4125,7 +4136,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>143</v>
       </c>
@@ -4141,7 +4152,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>141</v>
       </c>
@@ -4157,7 +4168,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4171,7 +4182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4183,7 +4194,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>140</v>
       </c>
@@ -4193,7 +4204,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>118</v>
       </c>
@@ -4206,7 +4217,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4218,7 +4229,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4228,7 +4239,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
@@ -4241,7 +4252,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
@@ -4253,7 +4264,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4266,7 +4277,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4279,7 +4290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>121</v>
       </c>
@@ -4291,7 +4302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4302,7 +4313,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4315,7 +4326,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4326,7 +4337,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4337,7 +4348,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4348,7 +4359,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4361,7 +4372,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4371,7 +4382,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4397,7 +4408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
@@ -4425,7 +4436,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4436,7 +4447,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4448,7 +4459,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4461,7 +4472,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4473,13 +4484,13 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
@@ -4487,19 +4498,19 @@
         <v>40594</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>11824</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4515,7 +4526,7 @@
         <v>716641</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
@@ -4523,19 +4534,19 @@
         <v>70126</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
@@ -4543,7 +4554,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4551,7 +4562,7 @@
         <v>373503</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>231</v>
       </c>
@@ -4559,28 +4570,28 @@
         <v>1489904</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4633,19 +4644,19 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4654,7 +4665,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4669,7 +4680,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
@@ -4683,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>5.6700000762939453</v>
+        <v>5.5500001907348633</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>204</v>
       </c>
@@ -4709,7 +4720,7 @@
       <c r="H4" s="259"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>169</v>
       </c>
@@ -4724,13 +4735,13 @@
       </c>
       <c r="G5" s="251">
         <f>G3*G4/1000000</f>
-        <v>1037728.9581914525</v>
+        <v>1015766.4617983812</v>
       </c>
       <c r="H5" s="251"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4767,7 @@
       <c r="H6" s="252"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>201</v>
       </c>
@@ -4773,15 +4784,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>199</v>
       </c>
@@ -4789,7 +4800,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
@@ -4800,7 +4811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>186</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>136</v>
       </c>
@@ -4826,8 +4837,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4838,7 +4849,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>194</v>
       </c>
@@ -4849,7 +4860,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>195</v>
       </c>
@@ -4863,7 +4874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>188</v>
       </c>
@@ -4872,8 +4883,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>191</v>
       </c>
@@ -4888,7 +4899,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>175</v>
       </c>
@@ -4900,10 +4911,10 @@
         <v>220</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>252</v>
       </c>
@@ -4914,7 +4925,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>176</v>
       </c>
@@ -4926,7 +4937,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>253</v>
       </c>
@@ -4939,10 +4950,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C37*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57562030231468408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.56329421176435923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>177</v>
       </c>
@@ -4955,10 +4966,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.10707419428921199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.10941720827168835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>200</v>
       </c>
@@ -4974,7 +4985,7 @@
         <v>0.79627102561944574</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>179</v>
       </c>
@@ -4987,11 +4998,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5260078504046641E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.7125752650913796E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5011,45 +5022,45 @@
       </c>
       <c r="H28" s="249"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.6372602446152689</v>
+        <v>4.1309044374667092</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.8195003597283375</v>
+        <v>6.8848407291111826</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.4556002877826693</v>
+        <v>5.5078725832889468</v>
       </c>
       <c r="G29" s="250">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>2.9413446516692057</v>
+        <v>2.9604155716754157</v>
       </c>
       <c r="H29" s="250"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="203" t="s">
         <v>242</v>
       </c>
       <c r="C32" s="242"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>243</v>
@@ -5058,7 +5069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>245</v>
@@ -5069,14 +5080,14 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="203" t="s">
         <v>246</v>
       </c>
       <c r="C35" s="242"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>267</v>
@@ -5085,7 +5096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>268</v>
@@ -5094,14 +5105,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="203" t="s">
         <v>247</v>
       </c>
       <c r="C38" s="242"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>248</v>
@@ -5110,7 +5121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>256</v>
@@ -5119,19 +5130,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="245" t="s">
         <v>250</v>
@@ -5140,886 +5151,886 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6097,7 +6108,7 @@
       <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6105,7 +6116,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6113,7 +6124,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6138,7 +6149,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -6167,7 +6178,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -6189,7 +6200,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>138</v>
@@ -6239,7 +6250,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6290,7 +6301,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6341,7 +6352,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6392,7 +6403,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6443,7 +6454,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6494,7 +6505,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6545,7 +6556,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>259</v>
@@ -6596,7 +6607,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="97" t="s">
         <v>125</v>
@@ -6647,7 +6658,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="99" t="s">
         <v>111</v>
@@ -6698,7 +6709,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="236" t="s">
         <v>264</v>
@@ -6749,7 +6760,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="248" t="s">
         <v>265</v>
@@ -6800,7 +6811,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="94" t="s">
         <v>99</v>
@@ -6851,7 +6862,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="97" t="s">
         <v>105</v>
@@ -6902,7 +6913,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>261</v>
@@ -6953,7 +6964,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>108</v>
@@ -7004,7 +7015,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>110</v>
@@ -7055,7 +7066,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="94" t="s">
         <v>112</v>
@@ -7106,7 +7117,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="98" t="s">
         <v>113</v>
@@ -7157,7 +7168,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
         <v>114</v>
@@ -7208,7 +7219,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="102" t="s">
         <v>115</v>
@@ -7259,7 +7270,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="101" t="s">
         <v>132</v>
@@ -7310,7 +7321,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="115" t="s">
         <v>139</v>
@@ -7361,7 +7372,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7412,7 +7423,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>15</v>
@@ -7463,7 +7474,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>118</v>
@@ -7514,7 +7525,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>153</v>
@@ -7565,7 +7576,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>16</v>
@@ -7616,7 +7627,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>117</v>
@@ -7667,7 +7678,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7718,7 +7729,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -7769,7 +7780,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>19</v>
@@ -7820,7 +7831,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>142</v>
@@ -7871,7 +7882,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>143</v>
@@ -7922,7 +7933,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -7973,7 +7984,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
         <v>145</v>
@@ -8024,7 +8035,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="98" t="s">
         <v>163</v>
@@ -8075,7 +8086,7 @@
       </c>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="55" t="s">
         <v>128</v>
@@ -8093,7 +8104,7 @@
       <c r="M42" s="54"/>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="95" t="s">
         <v>98</v>
@@ -8144,7 +8155,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>260</v>
@@ -8195,7 +8206,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>262</v>
@@ -8246,7 +8257,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>109</v>
@@ -8297,7 +8308,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>123</v>
@@ -8348,7 +8359,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>133</v>
@@ -8399,7 +8410,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
         <v>126</v>
@@ -8450,7 +8461,7 @@
       </c>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="103" t="s">
         <v>154</v>
@@ -8468,7 +8479,7 @@
       <c r="M50" s="36"/>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="95" t="s">
         <v>151</v>
@@ -8519,7 +8530,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
         <v>152</v>
@@ -8570,7 +8581,7 @@
       </c>
       <c r="N52" s="87"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="103" t="s">
         <v>127</v>
@@ -8587,7 +8598,7 @@
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="95" t="s">
         <v>20</v>
@@ -8637,7 +8648,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
@@ -8687,7 +8698,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
         <v>124</v>
@@ -8737,7 +8748,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="98" t="s">
         <v>21</v>
@@ -8787,1260 +8798,1260 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M24 C28:M41">
@@ -10084,7 +10095,7 @@
       <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10092,11 +10103,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10112,7 +10123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10136,7 +10147,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10152,7 +10163,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10167,18 +10178,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-698136.95864712389</v>
+        <v>-698315.01089711185</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.416015082443093</v>
+        <v>1.416121182572216</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10192,7 +10203,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10215,13 +10226,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10241,7 +10252,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10266,7 +10277,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10294,7 +10305,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>140</v>
       </c>
@@ -10322,7 +10333,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>118</v>
       </c>
@@ -10350,7 +10361,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10378,7 +10389,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10405,7 +10416,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>164</v>
       </c>
@@ -10427,7 +10438,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>119</v>
       </c>
@@ -10449,7 +10460,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10470,7 +10481,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
@@ -10522,7 +10533,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10543,7 +10554,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10569,7 +10580,7 @@
         <v>664223</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10578,7 +10589,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10600,7 +10611,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10629,7 +10640,7 @@
         <v>0.57302882475325867</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10662,7 +10673,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10695,7 +10706,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10725,7 +10736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10737,7 +10748,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10763,7 +10774,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10790,7 +10801,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10828,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>165</v>
       </c>
@@ -10847,7 +10858,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -10874,7 +10885,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -10900,7 +10911,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -10927,7 +10938,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -10954,7 +10965,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
@@ -10975,7 +10986,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -10996,7 +11007,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11017,7 +11028,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11038,7 +11049,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11064,7 +11075,7 @@
         <v>292377</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11073,7 +11084,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11092,7 +11103,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11111,7 +11122,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11141,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11171,7 +11182,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11198,7 +11209,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11225,20 +11236,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11255,7 +11266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11276,7 +11287,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11285,7 +11296,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>155</v>
       </c>
@@ -11296,7 +11307,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11311,7 +11322,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11327,7 +11338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11342,7 +11353,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11351,7 +11362,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>158</v>
       </c>
@@ -11365,7 +11376,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11386,7 +11397,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>144</v>
       </c>
@@ -11407,7 +11418,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>146</v>
       </c>
@@ -11428,7 +11439,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>156</v>
       </c>
@@ -11443,7 +11454,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>147</v>
       </c>
@@ -11464,7 +11475,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11474,7 +11485,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>159</v>
       </c>
@@ -11488,7 +11499,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>145</v>
       </c>
@@ -11509,7 +11520,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>157</v>
       </c>
@@ -11524,7 +11535,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>148</v>
       </c>
@@ -11545,7 +11556,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>131</v>
@@ -11567,7 +11578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -11586,7 +11597,7 @@
       <c r="I73" s="262"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>130</v>
       </c>
@@ -11607,7 +11618,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>106</v>
       </c>
@@ -11637,7 +11648,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11658,7 +11669,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>239</v>
       </c>
@@ -11688,7 +11699,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>258</v>
       </c>
@@ -11709,7 +11720,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>125</v>
       </c>
@@ -11739,7 +11750,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>240</v>
       </c>
@@ -11769,7 +11780,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>110</v>
       </c>
@@ -11800,7 +11811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>178</v>
       </c>
@@ -11830,7 +11841,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>129</v>
       </c>
@@ -11860,7 +11871,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -11881,7 +11892,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>170</v>
       </c>
@@ -11911,7 +11922,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>166</v>
       </c>
@@ -11932,28 +11943,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>217</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.144848655196336</v>
+        <v>0.14801825574034036</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5732709303778764E-2</v>
+        <v>5.6952261017867184E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10707419428921199</v>
+        <v>0.10941720827168835</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>216</v>
       </c>
@@ -11983,32 +11994,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>234</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5260078504046641E-2</v>
+        <v>8.7125752650913796E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.263003925202332E-2</v>
+        <v>4.3562876325456898E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5260078504046641E-2</v>
+        <v>8.7125752650913796E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>160</v>
@@ -12018,7 +12029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>161</v>
       </c>
@@ -12040,7 +12051,7 @@
       <c r="I92" s="261"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -12057,24 +12068,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>5.3581433874730529</v>
+        <v>5.3891628270965972</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>13.052771699955134</v>
+        <v>13.191482150120848</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -12082,22 +12093,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>3.8503586784921748</v>
+        <v>3.8676140327479005</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>219</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>9.4091232165161482</v>
+        <v>9.4902780366065258</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12126,46 +12137,46 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1812783.6090743863</v>
+        <v>1832515.1162621793</v>
       </c>
       <c r="D97" s="222"/>
       <c r="E97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>4.0658999134833085</v>
+        <v>4.0904812457005439</v>
       </c>
       <c r="F97" s="222"/>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>9.904785946871387</v>
+        <v>10.01259603193942</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>202231.57165185609</v>
+        <v>202283.14861810207</v>
       </c>
       <c r="D98" s="222"/>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1049638902757888</v>
+        <v>1.1052456993168116</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>150</v>
       </c>
@@ -12186,41 +12197,41 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1610552.0374225301</v>
+        <v>1630231.9676440773</v>
       </c>
       <c r="D100" s="110">
         <f>F100*(1-C94)</f>
-        <v>4.9983221839163248</v>
+        <v>4.4597197046273775</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.9609360232075197</v>
+        <v>2.9852355463837323</v>
       </c>
       <c r="F100" s="110">
         <f>(E100+H100)/2</f>
-        <v>5.880379039901559</v>
+        <v>5.9462929395031701</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.7998220565955982</v>
+        <v>8.9073503326226078</v>
       </c>
       <c r="I100" s="110">
         <f>F100*1.25</f>
-        <v>7.3504737998769487</v>
+        <v>7.4328661743789626</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>168</v>
       </c>
@@ -12247,41 +12258,41 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1306749.6110975703</v>
+        <v>1318356.6305665732</v>
       </c>
       <c r="D103" s="110">
         <f>F103*(1-C94)</f>
-        <v>4.276198305314213</v>
+        <v>3.8020891703060418</v>
       </c>
       <c r="E103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>2.9217532801308916</v>
+        <v>2.9355955969670995</v>
       </c>
       <c r="F103" s="110">
         <f>(E103+H103)/2</f>
-        <v>5.0308215356637804</v>
+        <v>5.0694522270747227</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>7.1398897911966692</v>
+        <v>7.2033088571823463</v>
       </c>
       <c r="I103" s="110">
         <f>F103*1.25</f>
-        <v>6.2885269195797253</v>
+        <v>6.3368152838434035</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>206</v>
       </c>
@@ -12308,40 +12319,40 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>538327.77424824261</v>
+        <v>541818.15267566801</v>
       </c>
       <c r="D106" s="110">
         <f>(D100+D103)/2</f>
-        <v>4.6372602446152689</v>
+        <v>4.1309044374667092</v>
       </c>
       <c r="E106" s="124">
         <f>(E100+E103)/2</f>
-        <v>2.9413446516692057</v>
+        <v>2.9604155716754157</v>
       </c>
       <c r="F106" s="110">
         <f>(F100+F103)/2</f>
-        <v>5.4556002877826693</v>
+        <v>5.5078725832889468</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>7.9698559238961337</v>
+        <v>8.0553295949024779</v>
       </c>
       <c r="I106" s="124">
         <f>(I100+I103)/2</f>
-        <v>6.8195003597283375</v>
+        <v>6.8848407291111826</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>171</v>
       </c>

--- a/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0857.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC87570-211F-034F-9601-7FB6D038E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A33814-9AA5-49F8-B8A5-93F9C8468422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="12700" windowHeight="7640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -27,17 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -974,18 +963,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1473,7 +1462,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="265">
@@ -1529,8 +1518,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1553,14 +1542,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1590,7 +1579,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1695,7 +1684,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1723,7 +1712,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,13 +1768,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1827,7 +1816,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1860,16 +1849,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,7 +1879,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1915,10 +1904,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,10 +1916,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,13 +1936,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,13 +1954,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2009,7 +1998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2018,10 +2007,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2074,7 +2063,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2088,7 +2077,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2101,20 +2090,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -2295,7 +2284,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2357,7 +2346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2629,7 +2618,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2659,7 +2648,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3471,20 +3460,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="142" t="s">
         <v>203</v>
       </c>
@@ -3499,7 +3488,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
       <c r="B5" s="142" t="s">
         <v>204</v>
       </c>
@@ -3515,7 +3504,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="142" t="s">
         <v>169</v>
       </c>
@@ -3530,7 +3519,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3538,7 +3527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="141" t="s">
         <v>225</v>
       </c>
@@ -3546,7 +3535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="141" t="s">
         <v>226</v>
       </c>
@@ -3554,7 +3543,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="141" t="s">
         <v>227</v>
       </c>
@@ -3562,7 +3551,7 @@
         <v>183020977818</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="141" t="s">
         <v>228</v>
       </c>
@@ -3570,7 +3559,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3578,7 +3567,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3586,7 +3575,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="227" t="s">
         <v>230</v>
       </c>
@@ -3594,7 +3583,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="227" t="s">
         <v>229</v>
       </c>
@@ -3602,7 +3591,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="234" t="s">
         <v>97</v>
       </c>
@@ -3611,7 +3600,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="116" t="s">
         <v>138</v>
       </c>
@@ -3660,7 +3649,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3696,7 +3685,7 @@
       </c>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="97" t="s">
         <v>106</v>
       </c>
@@ -3740,7 +3729,7 @@
       </c>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
@@ -3784,7 +3773,7 @@
       </c>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
@@ -3812,7 +3801,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B23" s="97" t="s">
         <v>125</v>
       </c>
@@ -3848,7 +3837,7 @@
       </c>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="99" t="s">
         <v>111</v>
       </c>
@@ -3884,7 +3873,7 @@
       </c>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="97" t="s">
         <v>110</v>
       </c>
@@ -3928,7 +3917,7 @@
       </c>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3972,7 +3961,7 @@
       </c>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>108</v>
       </c>
@@ -4008,7 +3997,7 @@
       </c>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4024,7 +4013,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>118</v>
       </c>
@@ -4040,7 +4029,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="94" t="s">
         <v>153</v>
       </c>
@@ -4056,7 +4045,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4061,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="94" t="s">
         <v>117</v>
       </c>
@@ -4088,7 +4077,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4104,7 +4093,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4120,7 +4109,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>142</v>
       </c>
@@ -4136,7 +4125,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>143</v>
       </c>
@@ -4152,7 +4141,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>141</v>
       </c>
@@ -4168,7 +4157,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4182,7 +4171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4194,7 +4183,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>140</v>
       </c>
@@ -4204,7 +4193,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>118</v>
       </c>
@@ -4217,7 +4206,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4229,7 +4218,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4239,7 +4228,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
@@ -4252,7 +4241,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
@@ -4264,7 +4253,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4277,7 +4266,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,7 +4279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>121</v>
       </c>
@@ -4302,7 +4291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4313,7 +4302,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4326,7 +4315,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4337,7 +4326,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4348,7 +4337,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4359,7 +4348,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4372,7 +4361,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4382,7 +4371,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4396,7 +4385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4408,7 +4397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4423,7 +4412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
@@ -4436,7 +4425,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4447,7 +4436,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4448,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4472,7 +4461,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4484,13 +4473,13 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
@@ -4498,19 +4487,19 @@
         <v>40594</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
@@ -4518,7 +4507,7 @@
         <v>11824</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4526,7 +4515,7 @@
         <v>716641</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
@@ -4534,19 +4523,19 @@
         <v>70126</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
@@ -4554,7 +4543,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4562,7 +4551,7 @@
         <v>373503</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B76" s="73" t="s">
         <v>231</v>
       </c>
@@ -4570,28 +4559,28 @@
         <v>1489904</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4640,23 +4629,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4665,7 +4654,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4680,7 +4669,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
@@ -4700,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>204</v>
       </c>
@@ -4720,7 +4709,7 @@
       <c r="H4" s="259"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>169</v>
       </c>
@@ -4741,7 +4730,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4767,7 +4756,7 @@
       <c r="H6" s="252"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>201</v>
       </c>
@@ -4791,8 +4780,8 @@
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>199</v>
       </c>
@@ -4800,7 +4789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
@@ -4811,7 +4800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="123" t="s">
         <v>186</v>
       </c>
@@ -4825,7 +4814,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
         <v>136</v>
       </c>
@@ -4837,8 +4826,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>194</v>
       </c>
@@ -4860,7 +4849,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="123" t="s">
         <v>195</v>
       </c>
@@ -4874,7 +4863,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
         <v>188</v>
       </c>
@@ -4883,8 +4872,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="143" t="s">
         <v>191</v>
       </c>
@@ -4899,7 +4888,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="138" t="s">
         <v>175</v>
       </c>
@@ -4911,10 +4900,10 @@
         <v>220</v>
       </c>
       <c r="G20" s="178">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="138" t="s">
         <v>252</v>
       </c>
@@ -4925,7 +4914,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="138" t="s">
         <v>176</v>
       </c>
@@ -4937,7 +4926,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="138" t="s">
         <v>253</v>
       </c>
@@ -4953,7 +4942,7 @@
         <v>0.56329421176435923</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="138" t="s">
         <v>177</v>
       </c>
@@ -4969,7 +4958,7 @@
         <v>0.10941720827168835</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="138" t="s">
         <v>200</v>
       </c>
@@ -4985,7 +4974,7 @@
         <v>0.79627102561944574</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="139" t="s">
         <v>179</v>
       </c>
@@ -5001,8 +4990,8 @@
         <v>8.7125752650913796E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -5022,13 +5011,13 @@
       </c>
       <c r="H28" s="249"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
         <v>174</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1309044374667092</v>
+        <v>4.6816916957956041</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
@@ -5045,22 +5034,22 @@
       </c>
       <c r="H29" s="250"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="203" t="s">
         <v>242</v>
       </c>
       <c r="C32" s="242"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>243</v>
@@ -5069,7 +5058,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>245</v>
@@ -5080,14 +5069,14 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="203" t="s">
         <v>246</v>
       </c>
       <c r="C35" s="242"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>267</v>
@@ -5096,7 +5085,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>268</v>
@@ -5105,14 +5094,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="203" t="s">
         <v>247</v>
       </c>
       <c r="C38" s="242"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>248</v>
@@ -5121,7 +5110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>256</v>
@@ -5130,19 +5119,19 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="245" t="s">
         <v>250</v>
@@ -5151,886 +5140,886 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6102,13 +6091,13 @@
   </sheetPr>
   <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6116,7 +6105,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6124,7 +6113,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6149,7 +6138,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -6178,7 +6167,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -6200,7 +6189,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>138</v>
@@ -6250,7 +6239,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6301,7 +6290,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6352,7 +6341,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6403,7 +6392,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6454,7 +6443,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6505,7 +6494,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6556,7 +6545,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>259</v>
@@ -6607,7 +6596,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="97" t="s">
         <v>125</v>
@@ -6658,7 +6647,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="99" t="s">
         <v>111</v>
@@ -6709,7 +6698,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="236" t="s">
         <v>264</v>
@@ -6760,7 +6749,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="248" t="s">
         <v>265</v>
@@ -6811,7 +6800,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="94" t="s">
         <v>99</v>
@@ -6862,7 +6851,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="97" t="s">
         <v>105</v>
@@ -6913,7 +6902,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>261</v>
@@ -6964,7 +6953,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>108</v>
@@ -7015,7 +7004,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>110</v>
@@ -7066,7 +7055,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="94" t="s">
         <v>112</v>
@@ -7117,7 +7106,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="98" t="s">
         <v>113</v>
@@ -7168,7 +7157,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
         <v>114</v>
@@ -7219,7 +7208,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="102" t="s">
         <v>115</v>
@@ -7270,7 +7259,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="101" t="s">
         <v>132</v>
@@ -7321,7 +7310,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="115" t="s">
         <v>139</v>
@@ -7372,7 +7361,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>14</v>
@@ -7423,7 +7412,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>15</v>
@@ -7474,7 +7463,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>118</v>
@@ -7525,7 +7514,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>153</v>
@@ -7576,7 +7565,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>16</v>
@@ -7627,7 +7616,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>117</v>
@@ -7678,7 +7667,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>17</v>
@@ -7729,7 +7718,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>18</v>
@@ -7780,7 +7769,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>19</v>
@@ -7831,7 +7820,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>142</v>
@@ -7882,7 +7871,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>143</v>
@@ -7933,7 +7922,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>141</v>
@@ -7984,7 +7973,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
         <v>145</v>
@@ -8035,7 +8024,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="98" t="s">
         <v>163</v>
@@ -8086,7 +8075,7 @@
       </c>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
       <c r="B42" s="55" t="s">
         <v>128</v>
@@ -8104,7 +8093,7 @@
       <c r="M42" s="54"/>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="95" t="s">
         <v>98</v>
@@ -8155,7 +8144,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>260</v>
@@ -8206,7 +8195,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>262</v>
@@ -8257,7 +8246,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>109</v>
@@ -8308,7 +8297,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>123</v>
@@ -8359,7 +8348,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>133</v>
@@ -8410,7 +8399,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
         <v>126</v>
@@ -8461,7 +8450,7 @@
       </c>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="103" t="s">
         <v>154</v>
@@ -8479,7 +8468,7 @@
       <c r="M50" s="36"/>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="95" t="s">
         <v>151</v>
@@ -8530,7 +8519,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
         <v>152</v>
@@ -8581,7 +8570,7 @@
       </c>
       <c r="N52" s="87"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="103" t="s">
         <v>127</v>
@@ -8598,7 +8587,7 @@
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="95" t="s">
         <v>20</v>
@@ -8648,7 +8637,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>122</v>
@@ -8698,7 +8687,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
         <v>124</v>
@@ -8748,7 +8737,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="98" t="s">
         <v>21</v>
@@ -8798,1260 +8787,1260 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M24 C28:M41">
@@ -10091,11 +10080,11 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10103,11 +10092,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -10123,7 +10112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -10147,7 +10136,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -10163,7 +10152,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -10178,7 +10167,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -10203,7 +10192,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -10226,13 +10215,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -10252,7 +10241,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -10277,7 +10266,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -10305,7 +10294,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>140</v>
       </c>
@@ -10333,7 +10322,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>118</v>
       </c>
@@ -10361,7 +10350,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -10389,7 +10378,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -10416,7 +10405,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>164</v>
       </c>
@@ -10438,7 +10427,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>119</v>
       </c>
@@ -10460,7 +10449,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -10481,7 +10470,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -10506,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
@@ -10533,7 +10522,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -10554,7 +10543,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -10580,7 +10569,7 @@
         <v>664223</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -10589,7 +10578,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -10611,7 +10600,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -10640,7 +10629,7 @@
         <v>0.57302882475325867</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -10673,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -10706,7 +10695,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +10725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -10748,7 +10737,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -10774,7 +10763,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -10801,7 +10790,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -10828,7 +10817,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>165</v>
       </c>
@@ -10858,7 +10847,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -10885,7 +10874,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -10911,7 +10900,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -10938,7 +10927,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -10965,7 +10954,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
@@ -10986,7 +10975,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -11007,7 +10996,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11028,7 +11017,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -11049,7 +11038,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -11075,7 +11064,7 @@
         <v>292377</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11084,7 +11073,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -11103,7 +11092,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -11122,7 +11111,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -11152,7 +11141,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -11182,7 +11171,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -11209,7 +11198,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -11236,20 +11225,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -11266,7 +11255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -11287,7 +11276,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11296,7 +11285,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>155</v>
       </c>
@@ -11307,7 +11296,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -11322,7 +11311,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -11338,7 +11327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -11353,7 +11342,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11362,7 +11351,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>158</v>
       </c>
@@ -11376,7 +11365,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -11397,7 +11386,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>144</v>
       </c>
@@ -11418,7 +11407,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>146</v>
       </c>
@@ -11439,7 +11428,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="122" t="s">
         <v>156</v>
       </c>
@@ -11454,7 +11443,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>147</v>
       </c>
@@ -11475,7 +11464,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11485,7 +11474,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>159</v>
       </c>
@@ -11499,7 +11488,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>145</v>
       </c>
@@ -11520,7 +11509,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="122" t="s">
         <v>157</v>
       </c>
@@ -11535,7 +11524,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>148</v>
       </c>
@@ -11556,7 +11545,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>131</v>
@@ -11578,7 +11567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -11597,7 +11586,7 @@
       <c r="I73" s="262"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>130</v>
       </c>
@@ -11618,7 +11607,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="105" t="s">
         <v>106</v>
       </c>
@@ -11648,7 +11637,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -11669,7 +11658,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="105" t="s">
         <v>239</v>
       </c>
@@ -11699,7 +11688,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>258</v>
       </c>
@@ -11720,7 +11709,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="105" t="s">
         <v>125</v>
       </c>
@@ -11750,7 +11739,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>240</v>
       </c>
@@ -11780,7 +11769,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>110</v>
       </c>
@@ -11811,7 +11800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="73" t="s">
         <v>178</v>
       </c>
@@ -11841,7 +11830,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="106" t="s">
         <v>129</v>
       </c>
@@ -11871,7 +11860,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
@@ -11892,7 +11881,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="86" t="s">
         <v>170</v>
       </c>
@@ -11922,7 +11911,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
         <v>166</v>
       </c>
@@ -11943,7 +11932,7 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>217</v>
       </c>
@@ -11964,7 +11953,7 @@
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>216</v>
       </c>
@@ -11994,7 +11983,7 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
         <v>234</v>
       </c>
@@ -12015,11 +12004,11 @@
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>160</v>
@@ -12029,7 +12018,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
         <v>161</v>
       </c>
@@ -12051,7 +12040,7 @@
       <c r="I92" s="261"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -12079,13 +12068,13 @@
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -12104,11 +12093,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12137,7 +12126,7 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>134</v>
       </c>
@@ -12158,7 +12147,7 @@
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
         <v>149</v>
       </c>
@@ -12176,7 +12165,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="106" t="s">
         <v>150</v>
       </c>
@@ -12197,7 +12186,7 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
@@ -12207,7 +12196,7 @@
       </c>
       <c r="D100" s="110">
         <f>F100*(1-C94)</f>
-        <v>4.4597197046273775</v>
+        <v>5.0543489985776944</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+E99,0)</f>
@@ -12227,11 +12216,11 @@
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
         <v>168</v>
       </c>
@@ -12258,7 +12247,7 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>167</v>
       </c>
@@ -12268,7 +12257,7 @@
       </c>
       <c r="D103" s="110">
         <f>F103*(1-C94)</f>
-        <v>3.8020891703060418</v>
+        <v>4.3090343930135138</v>
       </c>
       <c r="E103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
@@ -12288,11 +12277,11 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
         <v>206</v>
       </c>
@@ -12319,7 +12308,7 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>207</v>
       </c>
@@ -12329,7 +12318,7 @@
       </c>
       <c r="D106" s="110">
         <f>(D100+D103)/2</f>
-        <v>4.1309044374667092</v>
+        <v>4.6816916957956041</v>
       </c>
       <c r="E106" s="124">
         <f>(E100+E103)/2</f>
@@ -12349,10 +12338,10 @@
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
         <v>171</v>
       </c>
